--- a/Config/Excel/Food.xlsx
+++ b/Config/Excel/Food.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443F4AD-3248-45B2-8771-E6238592A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666B024-2EDE-4A31-B4FB-98762FB27854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -39,38 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全アイテムの設定ファイルです。</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>唯一のID</t>
-    <rPh sb="0" eb="2">
-      <t>ユイイツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムのID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -121,6 +96,23 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID(アイテムのID)</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全フードの設定ファイルです。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,16 +213,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -509,11 +492,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
-    <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="ItemID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Type"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="Amount"/>
     <tableColumn id="10" xr3:uid="{B69A039D-08C8-46F6-B28C-2EE5EA2782F8}" name="Percent"/>
@@ -819,77 +801,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.25" customWidth="1"/>
+    <col min="1" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
+        <v>2500</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2500</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2501</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="D3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2501</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2502</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2502</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>5</v>
       </c>
     </row>
@@ -905,10 +869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0258133-42E6-4606-8D6B-87E692C81D88}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -919,7 +883,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -929,53 +893,43 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Food.xlsx
+++ b/Config/Excel/Food.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666B024-2EDE-4A31-B4FB-98762FB27854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED2A27-4CDE-448C-81C5-52E8E09F26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Type"/>
@@ -801,9 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -855,6 +857,83 @@
       </c>
       <c r="D4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>30001</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30002</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>30003</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>30004</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>30005</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>30006</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>30007</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Food.xlsx
+++ b/Config/Excel/Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED2A27-4CDE-448C-81C5-52E8E09F26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1B2C4-CCA4-4CC5-8FE2-E9E1EEB1D34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Type"/>
@@ -801,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -861,18 +861,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>30001</v>
+        <v>2503</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>30002</v>
+        <v>2504</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -883,40 +883,40 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>30003</v>
+        <v>30001</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>30005</v>
+        <v>30003</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>30006</v>
+        <v>30004</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -927,12 +927,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>30005</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>30006</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>30007</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>40</v>
       </c>
     </row>
